--- a/BackTest/2020-01-13 BackTest XSR.xlsx
+++ b/BackTest/2020-01-13 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2233,7 +2233,7 @@
         <v>-6721527.03900949</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-6409163.13480949</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-5693009.147209489</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-6250810.692909488</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5761111.770709489</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-5889207.218909489</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-5893910.296409489</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-5885934.267209489</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4363181.229309491</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-4337344.369609491</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-4557602.045609491</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4837560.677409492</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4707855.123309493</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4950760.000409493</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4650872.487678971</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4390213.996978971</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4383649.996978971</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4383649.996978971</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4133985.565378971</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3395162.624978971</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3277460.353878971</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3034112.748178971</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-3279699.359078971</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-3241715.667671533</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-3399834.342071533</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3517179.739871534</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3298148.258071533</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3298148.258071533</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3441555.132471533</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3626085.628871534</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3625905.628871534</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3494115.326071533</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3218286.298771533</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3218286.298771533</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3539325.446071533</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3539325.446071533</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3812324.203171533</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3945550.638071533</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3977141.490771533</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3649448.740171534</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3484757.779871534</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3627661.130171534</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3765881.587771534</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3767595.332571534</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3971173.150971534</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4263874.602171534</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4263874.602171534</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4080796.939971534</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4385492.216971533</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4224974.221671534</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4225205.491571533</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-4502689.650571533</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4506063.212471534</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-4814193.526371534</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-4915347.648271534</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4640052.393471533</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4726820.020071534</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4580600.270271533</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-4582984.831371533</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-4401833.720071533</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-4401222.288371533</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-4192608.790871533</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4176527.889171533</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4299670.150091978</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-4544114.044591978</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4554170.526791979</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4554170.526791979</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5321776.614691978</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-5178800.110191979</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-5609930.736491978</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-5613254.646491978</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-5380555.768991978</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5102088.559891978</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5102088.559891978</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5303743.962091979</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5324432.133991979</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5375460.459491979</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5750305.310491979</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5918851.569391979</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-6018739.807791979</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-6433511.96759198</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-6225235.89059198</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-5915405.10969198</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-5920682.35579198</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-4592660.113551853</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-3568490.333051853</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3433704.108051853</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3304471.912951221</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3402765.131751221</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3255115.425351221</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3262229.522351221</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3246011.804651221</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3469523.559051221</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3468302.559051221</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3680352.371651221</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3679853.371651221</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3687535.624651221</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3882654.235251221</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4448600.171051221</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3917924.080251221</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-4670112.109551221</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-4182961.495851221</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-4453562.693651221</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-4497562.693651221</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-4611157.34735122</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-4611157.34735122</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-4357759.126928772</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-4603400.994728772</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-4801319.312728772</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-4801319.312728772</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5128467.813428772</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-5136507.028528771</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-5298496.773828771</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-5703918.563928771</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-5866139.871328771</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-5873445.638028771</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-5874782.53892877</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-5697523.859528771</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-5358989.497028771</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-5493477.159628771</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-5520270.242028771</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3093094.726286308</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-2999656.417386309</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3018948.016286309</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-2949129.054386309</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3433004.687886309</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-3442402.136986309</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2630447.596186309</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2359084.246186309</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2743343.542786309</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2755641.933086309</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-6183904.371686307</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-6183904.371686307</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-6334245.765186307</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-6461018.508286307</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-6460718.508286307</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-6678435.534786306</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-7004997.230886307</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-7372655.868386307</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -25465,11 +25465,17 @@
         <v>-18782377.23884901</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>7.405</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25498,11 +25504,17 @@
         <v>-18445955.37364901</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>7.376</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25531,11 +25543,17 @@
         <v>-18482194.06064901</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>7.389</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25582,17 @@
         <v>-18533508.74504901</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>7.378</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25621,17 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>7.377</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25660,17 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>7.378</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,15 +25699,17 @@
         <v>-18134127.71004901</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>7.378</v>
       </c>
-      <c r="J766" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25700,17 +25738,15 @@
         <v>-17931006.69799868</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>7.39</v>
       </c>
-      <c r="J767" t="n">
-        <v>7.378</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L767" t="n">
@@ -25741,17 +25777,15 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>7.534</v>
       </c>
-      <c r="J768" t="n">
-        <v>7.378</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L768" t="n">
@@ -25782,15 +25816,17 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>7.476</v>
       </c>
-      <c r="J769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25819,15 +25855,15 @@
         <v>-17888696.74089868</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
         <v>7.476</v>
       </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L770" t="n">
@@ -25858,12 +25894,12 @@
         <v>-18007979.66259868</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25897,12 +25933,12 @@
         <v>-18007979.66259868</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25936,12 +25972,12 @@
         <v>-18166194.70279868</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25975,12 +26011,12 @@
         <v>-17878421.54659868</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26014,12 +26050,12 @@
         <v>-17880286.63919868</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26053,12 +26089,12 @@
         <v>-18008684.42909868</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26095,9 +26131,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26134,9 +26168,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26173,9 +26205,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26209,12 +26239,12 @@
         <v>-18031251.60569868</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26248,12 +26278,12 @@
         <v>-17684689.55619868</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26287,12 +26317,12 @@
         <v>-17685735.10179868</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26326,12 +26356,12 @@
         <v>-17429353.68189868</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26368,9 +26398,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26407,9 +26435,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26446,9 +26472,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26485,9 +26509,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26524,9 +26546,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26563,9 +26583,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26602,9 +26620,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26641,9 +26657,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26680,9 +26694,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26719,9 +26731,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26758,9 +26768,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26797,9 +26805,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26836,9 +26842,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26875,9 +26879,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26914,9 +26916,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26953,9 +26953,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26992,9 +26990,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27031,9 +27027,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27070,9 +27064,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27106,12 +27098,12 @@
         <v>-18391049.75629868</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27145,12 +27137,12 @@
         <v>-18217713.26029868</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27184,12 +27176,12 @@
         <v>-18132631.66629868</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27223,12 +27215,12 @@
         <v>-17840052.07039868</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27262,12 +27254,12 @@
         <v>-17839218.60209868</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27301,12 +27293,12 @@
         <v>-18028993.45199868</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27340,12 +27332,12 @@
         <v>-18028924.76359868</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>7.451</v>
+      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27379,12 +27371,12 @@
         <v>-18243604.68229868</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27418,12 +27410,12 @@
         <v>-18251308.95989868</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27457,14 +27449,12 @@
         <v>-17849957.07059868</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>7.46</v>
       </c>
-      <c r="J812" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27498,12 +27488,12 @@
         <v>-17849350.67299869</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27540,9 +27530,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27576,12 +27564,12 @@
         <v>-18059119.01409869</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27618,9 +27606,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27657,9 +27643,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27696,9 +27680,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27735,9 +27717,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27774,9 +27754,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27813,9 +27791,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27852,9 +27828,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27891,9 +27865,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27930,9 +27902,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27969,9 +27939,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28008,9 +27976,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28047,9 +28013,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28086,9 +28050,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28125,9 +28087,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28164,9 +28124,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28203,9 +28161,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28242,9 +28198,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28281,9 +28235,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28320,9 +28272,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28359,9 +28309,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28398,9 +28346,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28437,9 +28383,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28473,12 +28417,12 @@
         <v>-16988758.01394902</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>7.533</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28515,9 +28459,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28554,9 +28496,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28593,9 +28533,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28632,9 +28570,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28671,9 +28607,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28710,9 +28644,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28749,9 +28681,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28788,9 +28718,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28824,12 +28752,12 @@
         <v>-17172324.52335224</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28863,12 +28791,12 @@
         <v>-17198160.05725224</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>7.531</v>
+      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28902,12 +28830,12 @@
         <v>-17321149.75375224</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28944,9 +28872,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28980,12 +28906,12 @@
         <v>-17049502.92090868</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>7.553</v>
+      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29022,9 +28948,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29061,9 +28985,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29100,9 +29022,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29139,9 +29059,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29178,9 +29096,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29217,9 +29133,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29256,9 +29170,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29295,9 +29207,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29334,9 +29244,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29370,12 +29278,12 @@
         <v>-17576432.73723017</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>7.524</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29412,9 +29320,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29448,12 +29354,12 @@
         <v>-17423794.89520266</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>7.528</v>
+      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29487,12 +29393,12 @@
         <v>-17065078.24736809</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29526,12 +29432,12 @@
         <v>-16771687.01842759</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29568,9 +29474,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29607,9 +29511,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29646,9 +29548,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29682,12 +29582,10 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29721,12 +29619,10 @@
         <v>-17089028.28397009</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29763,9 +29659,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29802,9 +29696,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29841,9 +29733,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29877,12 +29767,12 @@
         <v>-16929503.25337009</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>7.551</v>
+      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29916,12 +29806,12 @@
         <v>-16755156.09687009</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>7.476</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29958,9 +29848,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29997,9 +29885,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30036,9 +29922,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30075,9 +29959,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30114,9 +29996,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30153,9 +30033,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30192,9 +30070,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30231,9 +30107,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30270,9 +30144,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30309,9 +30181,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30348,9 +30218,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30387,9 +30255,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30426,9 +30292,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30465,9 +30329,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30504,9 +30366,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30543,9 +30403,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30582,9 +30440,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30621,9 +30477,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30660,9 +30514,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30699,9 +30551,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30738,9 +30588,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30777,9 +30625,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30816,9 +30662,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30855,9 +30699,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30894,9 +30736,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30933,9 +30773,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30972,9 +30810,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31011,9 +30847,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31050,9 +30884,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31089,9 +30921,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31128,9 +30958,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31167,9 +30995,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31206,9 +31032,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31245,9 +31069,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31284,9 +31106,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31323,9 +31143,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31362,9 +31180,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31401,9 +31217,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31440,9 +31254,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31479,9 +31291,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31518,9 +31328,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31557,9 +31365,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31596,9 +31402,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31635,9 +31439,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31674,9 +31476,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31713,9 +31513,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31752,9 +31550,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31791,9 +31587,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31830,9 +31624,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31869,9 +31661,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31908,9 +31698,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31947,9 +31735,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31986,9 +31772,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32025,9 +31809,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32064,9 +31846,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32103,9 +31883,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32142,9 +31920,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32181,9 +31957,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32220,9 +31994,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32259,9 +32031,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32298,9 +32068,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32337,9 +32105,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32376,9 +32142,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32415,9 +32179,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32454,9 +32216,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32493,9 +32253,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32532,9 +32290,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32571,9 +32327,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32610,9 +32364,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32649,9 +32401,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32688,9 +32438,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32727,9 +32475,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32766,9 +32512,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32805,9 +32549,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32844,9 +32586,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32883,9 +32623,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32922,9 +32660,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32961,9 +32697,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33000,9 +32734,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33039,9 +32771,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33078,9 +32808,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33117,9 +32845,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33156,9 +32882,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33195,9 +32919,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33234,9 +32956,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33273,9 +32993,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33312,9 +33030,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33351,9 +33067,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33390,9 +33104,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33429,9 +33141,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33468,9 +33178,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33507,9 +33215,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33546,9 +33252,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33585,9 +33289,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33624,9 +33326,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33663,9 +33363,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33702,9 +33400,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33741,9 +33437,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33780,9 +33474,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33819,9 +33511,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33858,9 +33548,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33897,9 +33585,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33936,9 +33622,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33975,9 +33659,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34014,9 +33696,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34053,9 +33733,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34092,9 +33770,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34131,9 +33807,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34170,9 +33844,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34209,9 +33881,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34248,9 +33918,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34287,9 +33955,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34326,9 +33992,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34365,9 +34029,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34404,9 +34066,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34443,9 +34103,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34482,9 +34140,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34521,9 +34177,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34560,9 +34214,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34599,9 +34251,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34638,9 +34288,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34677,9 +34325,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34716,9 +34362,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34755,9 +34399,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34794,9 +34436,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34833,9 +34473,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34872,9 +34510,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34911,9 +34547,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34950,9 +34584,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34989,9 +34621,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35028,9 +34658,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35067,9 +34695,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35106,9 +34732,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35145,9 +34769,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35184,9 +34806,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35223,9 +34843,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35262,9 +34880,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35301,9 +34917,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35340,9 +34954,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35379,9 +34991,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35418,9 +35028,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35457,9 +35065,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35496,9 +35102,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35535,9 +35139,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35574,9 +35176,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35613,9 +35213,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35652,9 +35250,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35691,9 +35287,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35730,9 +35324,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35769,9 +35361,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35808,9 +35398,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35847,9 +35435,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35886,9 +35472,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35925,9 +35509,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35964,9 +35546,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36003,9 +35583,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36042,9 +35620,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36081,9 +35657,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36120,9 +35694,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36159,9 +35731,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36198,9 +35768,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36237,9 +35805,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36276,9 +35842,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36315,9 +35879,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36354,9 +35916,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36393,9 +35953,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36432,9 +35990,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36471,9 +36027,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36510,9 +36064,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36549,9 +36101,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36588,9 +36138,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36627,9 +36175,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36666,9 +36212,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36705,9 +36249,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36744,9 +36286,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36783,9 +36323,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36822,9 +36360,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36861,9 +36397,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36900,9 +36434,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>7.476</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36914,6 +36446,6 @@
       <c r="M1054" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XSR.xlsx
+++ b/BackTest/2020-01-13 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4147,7 +4147,7 @@
         <v>-4837560.677409492</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4707855.123309493</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4950760.000409493</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4650872.487678971</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4390213.996978971</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4383649.996978971</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4133985.565378971</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3395162.624978971</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3277460.353878971</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3034112.748178971</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-3279699.359078971</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-3241715.667671533</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-3399834.342071533</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3517179.739871534</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3298148.258071533</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3298148.258071533</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3441555.132471533</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3626085.628871534</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3625905.628871534</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3494115.326071533</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3218286.298771533</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3218286.298771533</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3539325.446071533</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3539325.446071533</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3812324.203171533</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-3945550.638071533</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3977141.490771533</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3649448.740171534</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3484757.779871534</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-3627661.130171534</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3765881.587771534</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-3767595.332571534</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-3971173.150971534</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4263874.602171534</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4263874.602171534</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4080796.939971534</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-4385492.216971533</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-4224974.221671534</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-4225205.491571533</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-4502689.650571533</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4506063.212471534</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-4814193.526371534</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-4915347.648271534</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-4640052.393471533</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-4726820.020071534</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4580600.270271533</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-4582984.831371533</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-4401833.720071533</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-4401222.288371533</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-4192608.790871533</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-4176527.889171533</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-4299670.150091978</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4554170.526791979</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4554170.526791979</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-5321776.614691978</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-5178800.110191979</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-5311619.547891978</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-5609930.736491978</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-5613254.646491978</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-5380555.768991978</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5102088.559891978</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5102088.559891978</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-5303743.962091979</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-5324432.133991979</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-5375460.459491979</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-5750305.310491979</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-5918851.569391979</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3402765.131751221</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3255115.425351221</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3262229.522351221</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3246011.804651221</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3469523.559051221</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3468302.559051221</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3680352.371651221</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3679853.371651221</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3687535.624651221</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3882654.235251221</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4448600.171051221</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-4203680.363151221</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-4203380.363151221</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-3917924.080251221</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-4670112.109551221</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-3863443.770751221</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-4182961.495851221</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-4453562.693651221</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-4497562.693651221</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-4611157.34735122</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-4611157.34735122</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-4357759.126928772</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-4603400.994728772</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-4601000.994728772</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-4801319.312728772</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-4801319.312728772</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-5128467.813428772</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-5136507.028528771</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-5298496.773828771</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-5703918.563928771</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-5866139.871328771</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-5873445.638028771</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-5874782.53892877</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-5697523.859528771</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-5358989.497028771</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-5493477.159628771</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-5520270.242028771</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-2630447.596186309</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-2359084.246186309</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-2743343.542786309</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-2755641.933086309</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -25465,1352 +25465,1176 @@
         <v>-18782377.23884901</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>7.405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="C761" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="D761" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="E761" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="F761" t="n">
+        <v>336421.8652</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-18445955.37364901</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="C762" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="D762" t="n">
+        <v>7.389</v>
+      </c>
+      <c r="E762" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="F762" t="n">
+        <v>36238.687</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-18482194.06064901</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="C763" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="D763" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="E763" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="F763" t="n">
+        <v>51314.6844</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-18533508.74504901</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>7.376</v>
+      </c>
+      <c r="C764" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="D764" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="E764" t="n">
+        <v>7.376</v>
+      </c>
+      <c r="F764" t="n">
+        <v>341158.0516</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-18192350.69344901</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="C765" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="D765" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="E765" t="n">
+        <v>7.378</v>
+      </c>
+      <c r="F765" t="n">
+        <v>245612.9948</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-18192350.69344901</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="C766" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D766" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E766" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="F766" t="n">
+        <v>58222.9834</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-18134127.71004901</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>7.439</v>
+      </c>
+      <c r="C767" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="D767" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="E767" t="n">
+        <v>7.439</v>
+      </c>
+      <c r="F767" t="n">
+        <v>203121.0120503318</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-17931006.69799868</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="C768" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="D768" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="E768" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="F768" t="n">
+        <v>166017.7579</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-18097024.45589868</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="C769" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="D769" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="E769" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="F769" t="n">
+        <v>1150.7655</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-18097024.45589868</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="C770" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D770" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E770" t="n">
+        <v>7.476</v>
+      </c>
+      <c r="F770" t="n">
+        <v>208327.715</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-17888696.74089868</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C771" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D771" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E771" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F771" t="n">
+        <v>119282.9217</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-18007979.66259868</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D772" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E772" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F772" t="n">
+        <v>2040</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-18007979.66259868</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>7.514</v>
+      </c>
+      <c r="C773" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D773" t="n">
+        <v>7.514</v>
+      </c>
+      <c r="E773" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="F773" t="n">
+        <v>158215.0402</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-18166194.70279868</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="C774" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="D774" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="E774" t="n">
+        <v>7.516</v>
+      </c>
+      <c r="F774" t="n">
+        <v>287773.1562</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-17878421.54659868</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C775" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D775" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E775" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F775" t="n">
+        <v>1865.0926</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-17880286.63919868</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>7.504</v>
+      </c>
+      <c r="C776" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D776" t="n">
+        <v>7.504</v>
+      </c>
+      <c r="E776" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="F776" t="n">
+        <v>128397.7899</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-18008684.42909868</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="C777" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="D777" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="E777" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="F777" t="n">
+        <v>316469.3659</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-17692215.06319868</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="C778" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="D778" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="E778" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="F778" t="n">
+        <v>86.9327</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-17692215.06319868</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="C779" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="D779" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="E779" t="n">
+        <v>7.494</v>
+      </c>
+      <c r="F779" t="n">
+        <v>33068.5835</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-17692215.06319868</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="C780" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D780" t="n">
+        <v>7.484</v>
+      </c>
+      <c r="E780" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="F780" t="n">
+        <v>339036.5425</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-18031251.60569868</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="D781" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="E781" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="F781" t="n">
+        <v>346562.0495</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-17684689.55619868</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="C782" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D782" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="E782" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="F782" t="n">
+        <v>1045.5456</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-17685735.10179868</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="C783" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="D783" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="E783" t="n">
+        <v>7.479</v>
+      </c>
+      <c r="F783" t="n">
+        <v>256381.4199</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-17429353.68189868</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="C784" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="D784" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="E784" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="F784" t="n">
+        <v>15765.7646</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-17445119.44649868</v>
+      </c>
+      <c r="H784" t="n">
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="C785" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="D785" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="E785" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="F785" t="n">
+        <v>333106.4049</v>
+      </c>
+      <c r="G785" t="n">
+        <v>-17112013.04159868</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="C786" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="D786" t="n">
+        <v>7.515</v>
+      </c>
+      <c r="E786" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="F786" t="n">
+        <v>611.4683</v>
+      </c>
+      <c r="G786" t="n">
+        <v>-17112624.50989868</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="C787" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D787" t="n">
+        <v>7.505</v>
+      </c>
+      <c r="E787" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F787" t="n">
+        <v>114973.3186</v>
+      </c>
+      <c r="G787" t="n">
+        <v>-17227597.82849868</v>
+      </c>
+      <c r="H787" t="n">
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
+      <c r="L787" t="n">
+        <v>1</v>
+      </c>
+      <c r="M787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="C788" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="D788" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="E788" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="F788" t="n">
+        <v>203005.0735</v>
+      </c>
+      <c r="G788" t="n">
+        <v>-17024592.75499868</v>
+      </c>
+      <c r="H788" t="n">
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
+      <c r="L788" t="n">
+        <v>1</v>
+      </c>
+      <c r="M788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="C789" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D789" t="n">
+        <v>7.509</v>
+      </c>
+      <c r="E789" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F789" t="n">
+        <v>1165.4954</v>
+      </c>
+      <c r="G789" t="n">
+        <v>-17025758.25039868</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="n">
+        <v>1</v>
+      </c>
+      <c r="M789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="C790" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="D790" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="E790" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="F790" t="n">
+        <v>256427.4226</v>
+      </c>
+      <c r="G790" t="n">
+        <v>-17282185.67299868</v>
+      </c>
+      <c r="H790" t="n">
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
+      <c r="L790" t="n">
+        <v>1</v>
+      </c>
+      <c r="M790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="C791" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="D791" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="E791" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="F791" t="n">
+        <v>1393.8918</v>
+      </c>
+      <c r="G791" t="n">
+        <v>-17283579.56479868</v>
+      </c>
+      <c r="H791" t="n">
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
+      <c r="L791" t="n">
+        <v>1</v>
+      </c>
+      <c r="M791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="C792" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="D792" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="E792" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="F792" t="n">
+        <v>42172.8186</v>
+      </c>
+      <c r="G792" t="n">
+        <v>-17325752.38339868</v>
+      </c>
+      <c r="H792" t="n">
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
+      <c r="L792" t="n">
+        <v>1</v>
+      </c>
+      <c r="M792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>7.488</v>
+      </c>
+      <c r="C793" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D793" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E793" t="n">
+        <v>7.488</v>
+      </c>
+      <c r="F793" t="n">
+        <v>201199.5704</v>
+      </c>
+      <c r="G793" t="n">
+        <v>-17124552.81299868</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="n">
+        <v>1</v>
+      </c>
+      <c r="M793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F794" t="n">
+        <v>100</v>
+      </c>
+      <c r="G794" t="n">
+        <v>-17124552.81299868</v>
+      </c>
+      <c r="H794" t="n">
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J794" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K794" t="inlineStr"/>
+      <c r="L794" t="n">
+        <v>1</v>
+      </c>
+      <c r="M794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C795" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="D795" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E795" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="F795" t="n">
+        <v>962328.895</v>
+      </c>
+      <c r="G795" t="n">
+        <v>-18086881.70799868</v>
+      </c>
+      <c r="H795" t="n">
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K795" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="C761" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="D761" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="E761" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="F761" t="n">
-        <v>336421.8652</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-18445955.37364901</v>
-      </c>
-      <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>7.376</v>
-      </c>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="C762" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="D762" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="E762" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="F762" t="n">
-        <v>36238.687</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-18482194.06064901</v>
-      </c>
-      <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>7.389</v>
-      </c>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>7.377</v>
-      </c>
-      <c r="C763" t="n">
-        <v>7.377</v>
-      </c>
-      <c r="D763" t="n">
-        <v>7.377</v>
-      </c>
-      <c r="E763" t="n">
-        <v>7.377</v>
-      </c>
-      <c r="F763" t="n">
-        <v>51314.6844</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-18533508.74504901</v>
-      </c>
-      <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>7.376</v>
-      </c>
-      <c r="C764" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="D764" t="n">
-        <v>7.383</v>
-      </c>
-      <c r="E764" t="n">
-        <v>7.376</v>
-      </c>
-      <c r="F764" t="n">
-        <v>341158.0516</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-18192350.69344901</v>
-      </c>
-      <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>7.377</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>7.387</v>
-      </c>
-      <c r="C765" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="D765" t="n">
-        <v>7.387</v>
-      </c>
-      <c r="E765" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="F765" t="n">
-        <v>245612.9948</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-18192350.69344901</v>
-      </c>
-      <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>7.387</v>
-      </c>
-      <c r="C766" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D766" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E766" t="n">
-        <v>7.387</v>
-      </c>
-      <c r="F766" t="n">
-        <v>58222.9834</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-18134127.71004901</v>
-      </c>
-      <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>7.378</v>
-      </c>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>7.439</v>
-      </c>
-      <c r="C767" t="n">
-        <v>7.534</v>
-      </c>
-      <c r="D767" t="n">
-        <v>7.534</v>
-      </c>
-      <c r="E767" t="n">
-        <v>7.439</v>
-      </c>
-      <c r="F767" t="n">
-        <v>203121.0120503318</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-17931006.69799868</v>
-      </c>
-      <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="C768" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="D768" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="E768" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="F768" t="n">
-        <v>166017.7579</v>
-      </c>
-      <c r="G768" t="n">
-        <v>-18097024.45589868</v>
-      </c>
-      <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>7.534</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="C769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="D769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="E769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="F769" t="n">
-        <v>1150.7655</v>
-      </c>
-      <c r="G769" t="n">
-        <v>-18097024.45589868</v>
-      </c>
-      <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="C770" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D770" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E770" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="F770" t="n">
-        <v>208327.715</v>
-      </c>
-      <c r="G770" t="n">
-        <v>-17888696.74089868</v>
-      </c>
-      <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>7.476</v>
-      </c>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C771" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D771" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E771" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F771" t="n">
-        <v>119282.9217</v>
-      </c>
-      <c r="G771" t="n">
-        <v>-18007979.66259868</v>
-      </c>
-      <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="C772" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D772" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E772" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F772" t="n">
-        <v>2040</v>
-      </c>
-      <c r="G772" t="n">
-        <v>-18007979.66259868</v>
-      </c>
-      <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>7.514</v>
-      </c>
-      <c r="C773" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="D773" t="n">
-        <v>7.514</v>
-      </c>
-      <c r="E773" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="F773" t="n">
-        <v>158215.0402</v>
-      </c>
-      <c r="G773" t="n">
-        <v>-18166194.70279868</v>
-      </c>
-      <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>7.516</v>
-      </c>
-      <c r="C774" t="n">
-        <v>7.516</v>
-      </c>
-      <c r="D774" t="n">
-        <v>7.516</v>
-      </c>
-      <c r="E774" t="n">
-        <v>7.516</v>
-      </c>
-      <c r="F774" t="n">
-        <v>287773.1562</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-17878421.54659868</v>
-      </c>
-      <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="C775" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D775" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E775" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F775" t="n">
-        <v>1865.0926</v>
-      </c>
-      <c r="G775" t="n">
-        <v>-17880286.63919868</v>
-      </c>
-      <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>7.516</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>7.504</v>
-      </c>
-      <c r="C776" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="D776" t="n">
-        <v>7.504</v>
-      </c>
-      <c r="E776" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="F776" t="n">
-        <v>128397.7899</v>
-      </c>
-      <c r="G776" t="n">
-        <v>-18008684.42909868</v>
-      </c>
-      <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="C777" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="D777" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="E777" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="F777" t="n">
-        <v>316469.3659</v>
-      </c>
-      <c r="G777" t="n">
-        <v>-17692215.06319868</v>
-      </c>
-      <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="C778" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="D778" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="E778" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="F778" t="n">
-        <v>86.9327</v>
-      </c>
-      <c r="G778" t="n">
-        <v>-17692215.06319868</v>
-      </c>
-      <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="C779" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="D779" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="E779" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="F779" t="n">
-        <v>33068.5835</v>
-      </c>
-      <c r="G779" t="n">
-        <v>-17692215.06319868</v>
-      </c>
-      <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>7.484</v>
-      </c>
-      <c r="C780" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="D780" t="n">
-        <v>7.484</v>
-      </c>
-      <c r="E780" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="F780" t="n">
-        <v>339036.5425</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-18031251.60569868</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>7.494</v>
-      </c>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="C781" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="D781" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="E781" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="F781" t="n">
-        <v>346562.0495</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-17684689.55619868</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="C782" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="D782" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="E782" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="F782" t="n">
-        <v>1045.5456</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-17685735.10179868</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>7.479</v>
-      </c>
-      <c r="C783" t="n">
-        <v>7.518</v>
-      </c>
-      <c r="D783" t="n">
-        <v>7.518</v>
-      </c>
-      <c r="E783" t="n">
-        <v>7.479</v>
-      </c>
-      <c r="F783" t="n">
-        <v>256381.4199</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-17429353.68189868</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="C784" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="D784" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="E784" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="F784" t="n">
-        <v>15765.7646</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-17445119.44649868</v>
-      </c>
-      <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="C785" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="D785" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="E785" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="F785" t="n">
-        <v>333106.4049</v>
-      </c>
-      <c r="G785" t="n">
-        <v>-17112013.04159868</v>
-      </c>
-      <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="C786" t="n">
-        <v>7.505</v>
-      </c>
-      <c r="D786" t="n">
-        <v>7.515</v>
-      </c>
-      <c r="E786" t="n">
-        <v>7.505</v>
-      </c>
-      <c r="F786" t="n">
-        <v>611.4683</v>
-      </c>
-      <c r="G786" t="n">
-        <v>-17112624.50989868</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>7.505</v>
-      </c>
-      <c r="C787" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D787" t="n">
-        <v>7.505</v>
-      </c>
-      <c r="E787" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F787" t="n">
-        <v>114973.3186</v>
-      </c>
-      <c r="G787" t="n">
-        <v>-17227597.82849868</v>
-      </c>
-      <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L787" t="n">
-        <v>1</v>
-      </c>
-      <c r="M787" t="inlineStr"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="C788" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="D788" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="E788" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="F788" t="n">
-        <v>203005.0735</v>
-      </c>
-      <c r="G788" t="n">
-        <v>-17024592.75499868</v>
-      </c>
-      <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L788" t="n">
-        <v>1</v>
-      </c>
-      <c r="M788" t="inlineStr"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="C789" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D789" t="n">
-        <v>7.509</v>
-      </c>
-      <c r="E789" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F789" t="n">
-        <v>1165.4954</v>
-      </c>
-      <c r="G789" t="n">
-        <v>-17025758.25039868</v>
-      </c>
-      <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L789" t="n">
-        <v>1</v>
-      </c>
-      <c r="M789" t="inlineStr"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="C790" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="D790" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="E790" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="F790" t="n">
-        <v>256427.4226</v>
-      </c>
-      <c r="G790" t="n">
-        <v>-17282185.67299868</v>
-      </c>
-      <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L790" t="n">
-        <v>1</v>
-      </c>
-      <c r="M790" t="inlineStr"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="C791" t="n">
-        <v>7.491</v>
-      </c>
-      <c r="D791" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="E791" t="n">
-        <v>7.491</v>
-      </c>
-      <c r="F791" t="n">
-        <v>1393.8918</v>
-      </c>
-      <c r="G791" t="n">
-        <v>-17283579.56479868</v>
-      </c>
-      <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L791" t="n">
-        <v>1</v>
-      </c>
-      <c r="M791" t="inlineStr"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="C792" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="D792" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="E792" t="n">
-        <v>7.477</v>
-      </c>
-      <c r="F792" t="n">
-        <v>42172.8186</v>
-      </c>
-      <c r="G792" t="n">
-        <v>-17325752.38339868</v>
-      </c>
-      <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L792" t="n">
-        <v>1</v>
-      </c>
-      <c r="M792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>7.488</v>
-      </c>
-      <c r="C793" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D793" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E793" t="n">
-        <v>7.488</v>
-      </c>
-      <c r="F793" t="n">
-        <v>201199.5704</v>
-      </c>
-      <c r="G793" t="n">
-        <v>-17124552.81299868</v>
-      </c>
-      <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>1</v>
-      </c>
-      <c r="M793" t="inlineStr"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C794" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D794" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E794" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F794" t="n">
-        <v>100</v>
-      </c>
-      <c r="G794" t="n">
-        <v>-17124552.81299868</v>
-      </c>
-      <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L794" t="n">
-        <v>1</v>
-      </c>
-      <c r="M794" t="inlineStr"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C795" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="D795" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E795" t="n">
-        <v>7.492</v>
-      </c>
-      <c r="F795" t="n">
-        <v>962328.895</v>
-      </c>
-      <c r="G795" t="n">
-        <v>-18086881.70799868</v>
-      </c>
-      <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26842,7 +26666,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26879,7 +26705,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26913,10 +26741,14 @@
         <v>-18224453.98899868</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J798" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26950,10 +26782,14 @@
         <v>-18232509.20579868</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>7.492</v>
+      </c>
+      <c r="J799" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26987,10 +26823,14 @@
         <v>-18102922.23909868</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="J800" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27027,7 +26867,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27061,10 +26903,14 @@
         <v>-18383429.02749868</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>7.443</v>
+      </c>
+      <c r="J802" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27098,12 +26944,12 @@
         <v>-18391049.75629868</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="n">
         <v>7.5</v>
       </c>
-      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27142,7 +26988,9 @@
       <c r="I804" t="n">
         <v>7.44</v>
       </c>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27176,12 +27024,12 @@
         <v>-18132631.66629868</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="J805" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27215,12 +27063,12 @@
         <v>-17840052.07039868</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="n">
         <v>7.5</v>
       </c>
-      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27254,12 +27102,12 @@
         <v>-17839218.60209868</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="J807" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27298,7 +27146,9 @@
       <c r="I808" t="n">
         <v>7.518</v>
       </c>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27337,7 +27187,9 @@
       <c r="I809" t="n">
         <v>7.451</v>
       </c>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27371,12 +27223,12 @@
         <v>-18243604.68229868</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>7.518</v>
-      </c>
-      <c r="J810" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27410,12 +27262,12 @@
         <v>-18251308.95989868</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>7.491</v>
-      </c>
-      <c r="J811" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27454,7 +27306,9 @@
       <c r="I812" t="n">
         <v>7.46</v>
       </c>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27488,12 +27342,12 @@
         <v>-17849350.67299869</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="J813" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27530,7 +27384,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27569,7 +27425,9 @@
       <c r="I815" t="n">
         <v>7.479</v>
       </c>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27603,10 +27461,14 @@
         <v>-18059119.01409869</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J816" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27643,7 +27505,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27677,10 +27541,14 @@
         <v>-18175569.46489869</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>7.488</v>
+      </c>
+      <c r="J818" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27714,10 +27582,14 @@
         <v>-18167645.39629869</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>7.481</v>
+      </c>
+      <c r="J819" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27751,10 +27623,14 @@
         <v>-18020813.07849869</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>7.488</v>
+      </c>
+      <c r="J820" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27788,10 +27664,14 @@
         <v>-17633408.61089869</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J821" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27825,10 +27705,14 @@
         <v>-17491274.82914902</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="J822" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27862,10 +27746,14 @@
         <v>-17490774.82914902</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>7.534</v>
+      </c>
+      <c r="J823" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27902,7 +27790,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27939,7 +27829,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27976,7 +27868,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28013,7 +27907,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28050,7 +27946,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28087,7 +27985,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28124,7 +28024,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28161,7 +28063,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28198,7 +28102,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28235,7 +28141,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28272,7 +28180,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28309,7 +28219,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28346,7 +28258,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28383,7 +28297,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28417,12 +28333,12 @@
         <v>-16988758.01394902</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>7.533</v>
-      </c>
-      <c r="J838" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28459,7 +28375,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28496,7 +28414,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28533,7 +28453,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28570,7 +28492,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28607,7 +28531,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28644,7 +28570,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28681,7 +28609,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28718,7 +28648,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28752,12 +28684,12 @@
         <v>-17172324.52335224</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>7.531</v>
-      </c>
-      <c r="J847" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28791,12 +28723,12 @@
         <v>-17198160.05725224</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>7.531</v>
-      </c>
-      <c r="J848" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28830,12 +28762,12 @@
         <v>-17321149.75375224</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="J849" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28872,7 +28804,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28906,12 +28840,12 @@
         <v>-17049502.92090868</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>7.553</v>
-      </c>
-      <c r="J851" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28948,7 +28882,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28985,7 +28921,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29022,7 +28960,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29059,7 +28999,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29096,7 +29038,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29133,7 +29077,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29170,7 +29116,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29207,7 +29155,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29244,7 +29194,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29278,12 +29230,12 @@
         <v>-17576432.73723017</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>7.524</v>
-      </c>
-      <c r="J861" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29320,7 +29272,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29354,12 +29308,12 @@
         <v>-17423794.89520266</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>7.528</v>
-      </c>
-      <c r="J863" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29393,12 +29347,12 @@
         <v>-17065078.24736809</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J864" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29432,12 +29386,12 @@
         <v>-16771687.01842759</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="J865" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29471,17 +29425,19 @@
         <v>-16771787.01842759</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>7.5</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L866" t="n">
-        <v>1</v>
+        <v>1.020333333333334</v>
       </c>
       <c r="M866" t="inlineStr"/>
     </row>
@@ -29508,15 +29464,11 @@
         <v>-17034869.16646092</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29545,15 +29497,11 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29582,15 +29530,11 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29619,15 +29563,11 @@
         <v>-17089028.28397009</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29656,15 +29596,11 @@
         <v>-17216888.50077009</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29693,15 +29629,11 @@
         <v>-16730133.74777009</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29734,11 +29666,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29767,17 +29695,11 @@
         <v>-16929503.25337009</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>7.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29806,17 +29728,11 @@
         <v>-16755156.09687009</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>7.534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29849,11 +29765,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29886,11 +29798,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29923,11 +29831,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29960,11 +29864,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29997,11 +29897,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30034,11 +29930,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30071,11 +29963,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30108,11 +29996,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30145,11 +30029,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30182,11 +30062,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30219,11 +30095,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30256,11 +30128,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30293,11 +30161,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30330,11 +30194,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30367,11 +30227,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30404,11 +30260,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30441,11 +30293,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30478,11 +30326,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30515,11 +30359,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30552,11 +30392,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30589,11 +30425,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30626,11 +30458,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30663,11 +30491,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30700,11 +30524,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30737,11 +30557,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30774,11 +30590,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30811,11 +30623,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30848,11 +30656,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30885,11 +30689,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30922,11 +30722,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30959,11 +30755,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30996,11 +30788,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31033,11 +30821,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31070,11 +30854,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31107,11 +30887,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31144,11 +30920,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31181,11 +30953,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31218,11 +30986,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31255,11 +31019,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31292,11 +31052,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31329,11 +31085,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31366,11 +31118,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31403,11 +31151,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31440,11 +31184,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31477,11 +31217,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31514,11 +31250,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31551,11 +31283,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31588,11 +31316,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31625,11 +31349,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31662,11 +31382,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31699,11 +31415,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31736,11 +31448,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31773,11 +31481,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31810,11 +31514,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31847,11 +31547,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31884,11 +31580,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31921,11 +31613,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31958,11 +31646,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31995,11 +31679,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +31712,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32069,11 +31745,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32106,11 +31778,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32143,11 +31811,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32180,11 +31844,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32217,11 +31877,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32254,11 +31910,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32291,11 +31943,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32328,11 +31976,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32365,11 +32009,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32402,11 +32042,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32435,15 +32071,15 @@
         <v>-16548178.90569684</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="J946" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32475,10 +32111,12 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>7.58</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L947" t="n">
@@ -32512,10 +32150,12 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>7.58</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L948" t="n">
@@ -32550,11 +32190,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32587,11 +32223,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32624,11 +32256,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32661,11 +32289,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32698,11 +32322,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32735,11 +32355,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32772,11 +32388,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32809,11 +32421,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32846,11 +32454,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32883,11 +32487,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32920,11 +32520,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32957,11 +32553,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32994,11 +32586,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33031,11 +32619,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33068,11 +32652,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33105,11 +32685,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33142,11 +32718,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33175,15 +32747,15 @@
         <v>-17361244.84852749</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="J966" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33215,10 +32787,12 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>7.565</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L967" t="n">
@@ -33252,10 +32826,12 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>7.565</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L968" t="n">
@@ -33290,11 +32866,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33327,11 +32899,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33364,11 +32932,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33401,11 +32965,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33438,11 +32998,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33475,11 +33031,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33512,11 +33064,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33549,11 +33097,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33586,11 +33130,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33623,11 +33163,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33660,11 +33196,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33697,11 +33229,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33734,11 +33262,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33771,11 +33295,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33808,11 +33328,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33845,11 +33361,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33882,11 +33394,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33919,11 +33427,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33956,11 +33460,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33993,11 +33493,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34030,11 +33526,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34067,11 +33559,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34104,11 +33592,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34141,11 +33625,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34178,11 +33658,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34215,11 +33691,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34252,11 +33724,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34289,11 +33757,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34326,11 +33790,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34363,11 +33823,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34400,11 +33856,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34437,11 +33889,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34474,11 +33922,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34511,11 +33955,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34548,11 +33988,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34585,11 +34021,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34622,11 +34054,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34659,11 +34087,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34696,11 +34120,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34733,11 +34153,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34770,11 +34186,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34807,11 +34219,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34844,11 +34252,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34881,11 +34285,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34918,11 +34318,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34955,11 +34351,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34992,11 +34384,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35029,11 +34417,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35066,11 +34450,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35103,11 +34483,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35140,11 +34516,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35177,11 +34549,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35210,13 +34578,15 @@
         <v>-17338015.3347275</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>7.618</v>
+      </c>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1021" t="n">
@@ -35284,9 +34654,11 @@
         <v>-17555747.9767275</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7.618</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -35543,9 +34915,11 @@
         <v>-17734014.0161275</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>7.591</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -35580,9 +34954,11 @@
         <v>-17385441.3174275</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>7.591</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35654,9 +35030,11 @@
         <v>-17383921.1951275</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>7.599</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35691,9 +35069,11 @@
         <v>-17791343.1762275</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>7.599</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35728,9 +35108,11 @@
         <v>-17653446.2460275</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>7.588</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35765,9 +35147,11 @@
         <v>-17915644.5032275</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>7.59</v>
+      </c>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35802,9 +35186,11 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>7.563</v>
+      </c>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35839,9 +35225,11 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>7.568</v>
+      </c>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35876,9 +35264,11 @@
         <v>-17021681.2476275</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>7.568</v>
+      </c>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35913,9 +35303,11 @@
         <v>-17017001.1218275</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>7.58</v>
+      </c>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35950,9 +35342,11 @@
         <v>-17265041.5549275</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>7.599</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35987,9 +35381,11 @@
         <v>-17499219.9069275</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>7.595</v>
+      </c>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -36024,9 +35420,11 @@
         <v>-17218503.0273275</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>7.57</v>
+      </c>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -36061,9 +35459,11 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>7.597</v>
+      </c>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -36098,9 +35498,11 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -36135,9 +35537,11 @@
         <v>-17573257.3832275</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>7.6</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36172,9 +35576,11 @@
         <v>-17575177.7571275</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>7.595</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -36209,9 +35615,11 @@
         <v>-17446409.6763275</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>7.563</v>
+      </c>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -36246,9 +35654,11 @@
         <v>-17260178.1631275</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>7.591</v>
+      </c>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36283,9 +35693,11 @@
         <v>-17466761.0993275</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>7.594</v>
+      </c>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36320,9 +35732,11 @@
         <v>-17467761.0993275</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>7.585</v>
+      </c>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36357,9 +35771,11 @@
         <v>-17260757.7944275</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>7.562</v>
+      </c>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36394,9 +35810,11 @@
         <v>-18529585.7447275</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>7.589</v>
+      </c>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -36431,9 +35849,11 @@
         <v>-18215453.3067275</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>7.56</v>
+      </c>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
@@ -36446,6 +35866,6 @@
       <c r="M1054" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XSR.xlsx
+++ b/BackTest/2020-01-13 BackTest XSR.xlsx
@@ -11374,7 +11374,7 @@
         <v>-3173727.444651853</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-3174146.444651853</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-3433704.108051853</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3304471.912951221</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-3304648.590951221</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-3456104.617351221</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-3456368.617351221</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3313143.414651221</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3312843.414651221</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3402765.131751221</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3255115.425351221</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3262229.522351221</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3043619.334651221</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3246011.804651221</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3469523.559051221</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3468302.559051221</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3680352.371651221</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-3679853.371651221</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3687535.624651221</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-3882654.235251221</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-4448600.171051221</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4203180.363151221</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -25597,11 +25597,17 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>7.377</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25636,17 @@
         <v>-18192350.69344901</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>7.378</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25675,17 @@
         <v>-18134127.71004901</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>7.378</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25714,17 @@
         <v>-17931006.69799868</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>7.39</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25753,17 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>7.534</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +25792,17 @@
         <v>-18097024.45589868</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>7.476</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25831,17 @@
         <v>-17888696.74089868</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>7.476</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25832,7 +25874,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +25907,17 @@
         <v>-18007979.66259868</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>7.49</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +25946,17 @@
         <v>-18166194.70279868</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>7.49</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25931,7 +25989,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25964,7 +26026,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25997,7 +26063,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,7 +26100,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26063,7 +26137,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26174,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26129,7 +26211,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26248,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26281,17 @@
         <v>-17685735.10179868</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>7.483</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26320,17 @@
         <v>-17429353.68189868</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>7.477</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26363,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26400,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26437,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26360,7 +26474,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26511,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26548,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26585,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26622,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,11 +26655,17 @@
         <v>-17325752.38339868</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>7.491</v>
+      </c>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26554,11 +26694,17 @@
         <v>-17124552.81299868</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>7.477</v>
+      </c>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26592,10 +26738,12 @@
       <c r="I794" t="n">
         <v>7.5</v>
       </c>
-      <c r="J794" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,15 +26772,15 @@
         <v>-18086881.70799868</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
         <v>7.5</v>
       </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L795" t="n">
@@ -26666,9 +26814,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26702,12 +26848,12 @@
         <v>-18086770.70799868</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
         <v>7.5</v>
       </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26746,9 +26892,7 @@
       <c r="I798" t="n">
         <v>7.5</v>
       </c>
-      <c r="J798" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26787,9 +26931,7 @@
       <c r="I799" t="n">
         <v>7.492</v>
       </c>
-      <c r="J799" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26828,9 +26970,7 @@
       <c r="I800" t="n">
         <v>7.42</v>
       </c>
-      <c r="J800" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26864,12 +27004,12 @@
         <v>-18384232.17289868</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>7.477</v>
+      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26908,9 +27048,7 @@
       <c r="I802" t="n">
         <v>7.443</v>
       </c>
-      <c r="J802" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26944,12 +27082,12 @@
         <v>-18391049.75629868</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
         <v>7.5</v>
       </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26988,9 +27126,7 @@
       <c r="I804" t="n">
         <v>7.44</v>
       </c>
-      <c r="J804" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27024,12 +27160,12 @@
         <v>-18132631.66629868</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27063,12 +27199,12 @@
         <v>-17840052.07039868</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
         <v>7.5</v>
       </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27102,12 +27238,12 @@
         <v>-17839218.60209868</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>7.503</v>
+      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27146,9 +27282,7 @@
       <c r="I808" t="n">
         <v>7.518</v>
       </c>
-      <c r="J808" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27187,9 +27321,7 @@
       <c r="I809" t="n">
         <v>7.451</v>
       </c>
-      <c r="J809" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27223,12 +27355,12 @@
         <v>-18243604.68229868</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>7.518</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27262,12 +27394,12 @@
         <v>-18251308.95989868</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>7.491</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27306,9 +27438,7 @@
       <c r="I812" t="n">
         <v>7.46</v>
       </c>
-      <c r="J812" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27342,12 +27472,12 @@
         <v>-17849350.67299869</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27381,12 +27511,12 @@
         <v>-18059503.41409868</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>7.507</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27425,9 +27555,7 @@
       <c r="I815" t="n">
         <v>7.479</v>
       </c>
-      <c r="J815" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27466,9 +27594,7 @@
       <c r="I816" t="n">
         <v>7.5</v>
       </c>
-      <c r="J816" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27502,12 +27628,12 @@
         <v>-18175319.73469869</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
         <v>7.5</v>
       </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27546,9 +27672,7 @@
       <c r="I818" t="n">
         <v>7.488</v>
       </c>
-      <c r="J818" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27587,9 +27711,7 @@
       <c r="I819" t="n">
         <v>7.481</v>
       </c>
-      <c r="J819" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27628,9 +27750,7 @@
       <c r="I820" t="n">
         <v>7.488</v>
       </c>
-      <c r="J820" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27669,9 +27789,7 @@
       <c r="I821" t="n">
         <v>7.5</v>
       </c>
-      <c r="J821" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27710,9 +27828,7 @@
       <c r="I822" t="n">
         <v>7.518</v>
       </c>
-      <c r="J822" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27751,9 +27867,7 @@
       <c r="I823" t="n">
         <v>7.534</v>
       </c>
-      <c r="J823" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27790,9 +27904,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27829,9 +27941,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27868,9 +27978,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27907,9 +28015,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27946,9 +28052,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27985,9 +28089,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28024,9 +28126,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28063,9 +28163,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28102,9 +28200,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28141,9 +28237,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28180,9 +28274,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28219,9 +28311,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28258,9 +28348,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28297,9 +28385,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28336,9 +28422,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28375,9 +28459,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28414,9 +28496,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28453,9 +28533,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28492,9 +28570,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28531,9 +28607,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28570,9 +28644,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28609,9 +28681,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28648,9 +28718,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28687,9 +28755,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28726,9 +28792,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28765,9 +28829,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28804,9 +28866,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28843,9 +28903,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28882,9 +28940,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28921,9 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28960,9 +29014,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28999,9 +29051,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29038,9 +29088,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29077,9 +29125,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29116,9 +29162,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29155,9 +29199,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29194,9 +29236,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29233,9 +29273,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29272,9 +29310,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29311,9 +29347,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29350,9 +29384,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29389,9 +29421,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29425,19 +29455,17 @@
         <v>-16771787.01842759</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L866" t="n">
-        <v>1.020333333333334</v>
+        <v>1</v>
       </c>
       <c r="M866" t="inlineStr"/>
     </row>
@@ -29464,11 +29492,15 @@
         <v>-17034869.16646092</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29497,11 +29529,15 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29530,11 +29566,15 @@
         <v>-17090332.74522759</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29563,11 +29603,15 @@
         <v>-17089028.28397009</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29596,11 +29640,15 @@
         <v>-17216888.50077009</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29629,11 +29677,15 @@
         <v>-16730133.74777009</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29666,7 +29718,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29699,7 +29755,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29732,7 +29792,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29765,7 +29829,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29798,7 +29866,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29831,7 +29903,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29864,7 +29940,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29897,7 +29977,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29930,7 +30014,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29963,7 +30051,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29996,7 +30088,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30029,7 +30125,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30062,7 +30162,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30095,7 +30199,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30128,7 +30236,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30161,7 +30273,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30194,7 +30310,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30227,7 +30347,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30260,7 +30384,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30293,7 +30421,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30326,7 +30458,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30359,7 +30495,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30392,7 +30532,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30425,7 +30569,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30458,7 +30606,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30491,7 +30643,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30524,7 +30680,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30557,7 +30717,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30590,7 +30754,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30623,7 +30791,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30656,7 +30828,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30689,7 +30865,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30722,7 +30902,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30755,7 +30939,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30788,7 +30976,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30821,7 +31013,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30854,7 +31050,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30887,7 +31087,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30920,7 +31124,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30953,7 +31161,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30986,7 +31198,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31019,7 +31235,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31052,7 +31272,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31085,7 +31309,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31118,7 +31346,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31151,7 +31383,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31184,7 +31420,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31217,7 +31457,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31250,7 +31494,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31283,7 +31531,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31316,7 +31568,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31349,7 +31605,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31382,7 +31642,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31415,7 +31679,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31448,7 +31716,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31481,7 +31753,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31514,7 +31790,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31547,7 +31827,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31580,7 +31864,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31613,7 +31901,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31646,7 +31938,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31679,7 +31975,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31712,7 +32012,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31745,7 +32049,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31778,7 +32086,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31811,7 +32123,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31844,7 +32160,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31877,7 +32197,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31910,7 +32234,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31943,7 +32271,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31976,7 +32308,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32009,7 +32345,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32042,7 +32382,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32071,15 +32415,15 @@
         <v>-16548178.90569684</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="J946" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K946" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32111,12 +32455,10 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>7.58</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L947" t="n">
@@ -32150,12 +32492,10 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>7.58</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L948" t="n">
@@ -32190,7 +32530,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32223,7 +32567,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32256,7 +32604,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32289,7 +32641,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -32322,7 +32678,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -32355,7 +32715,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -32388,7 +32752,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -32421,7 +32789,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -32454,7 +32826,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32487,7 +32863,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32520,7 +32900,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32553,7 +32937,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32586,7 +32974,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32619,7 +33011,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32652,7 +33048,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32685,7 +33085,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32718,7 +33122,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -32747,15 +33155,15 @@
         <v>-17361244.84852749</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>7.565</v>
-      </c>
-      <c r="J966" t="n">
-        <v>7.565</v>
-      </c>
-      <c r="K966" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -32787,12 +33195,10 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>7.565</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L967" t="n">
@@ -32826,12 +33232,10 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>7.565</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L968" t="n">
@@ -32866,7 +33270,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -32899,7 +33307,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -32932,7 +33344,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -32965,7 +33381,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -32998,7 +33418,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33031,7 +33455,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33064,7 +33492,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33097,7 +33529,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33130,7 +33566,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33163,7 +33603,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33196,7 +33640,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33229,7 +33677,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33262,7 +33714,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33295,7 +33751,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33328,7 +33788,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33361,7 +33825,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33394,7 +33862,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33427,7 +33899,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33460,7 +33936,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33493,7 +33973,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33526,7 +34010,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33559,7 +34047,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33592,7 +34084,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33625,7 +34121,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33658,7 +34158,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33691,7 +34195,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33724,7 +34232,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -33757,7 +34269,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33790,7 +34306,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33823,7 +34343,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33856,7 +34380,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33889,7 +34417,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33922,7 +34454,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33955,7 +34491,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33988,7 +34528,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34021,7 +34565,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34054,7 +34602,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34087,7 +34639,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34120,7 +34676,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34153,7 +34713,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34186,7 +34750,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34219,7 +34787,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34252,7 +34824,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34285,7 +34861,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34318,7 +34898,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34351,7 +34935,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34384,7 +34972,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34417,7 +35009,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34450,7 +35046,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34483,7 +35083,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34516,7 +35120,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34549,7 +35157,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34578,15 +35190,13 @@
         <v>-17338015.3347275</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1021" t="n">
-        <v>7.618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1021" t="n">
@@ -34654,11 +35264,9 @@
         <v>-17555747.9767275</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>7.618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34915,11 +35523,9 @@
         <v>-17734014.0161275</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1030" t="n">
-        <v>7.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -34954,11 +35560,9 @@
         <v>-17385441.3174275</v>
       </c>
       <c r="H1031" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1031" t="n">
-        <v>7.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35030,11 +35634,9 @@
         <v>-17383921.1951275</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1033" t="n">
-        <v>7.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35069,11 +35671,9 @@
         <v>-17791343.1762275</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>7.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35108,11 +35708,9 @@
         <v>-17653446.2460275</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>7.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -35147,11 +35745,9 @@
         <v>-17915644.5032275</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1036" t="n">
-        <v>7.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
@@ -35186,11 +35782,9 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>7.563</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -35225,11 +35819,9 @@
         <v>-17573307.0719275</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>7.568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -35264,11 +35856,9 @@
         <v>-17021681.2476275</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1039" t="n">
-        <v>7.568</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
@@ -35303,11 +35893,9 @@
         <v>-17017001.1218275</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>7.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -35342,11 +35930,9 @@
         <v>-17265041.5549275</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>7.599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -35381,11 +35967,9 @@
         <v>-17499219.9069275</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>7.595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -35420,11 +36004,9 @@
         <v>-17218503.0273275</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>7.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35459,11 +36041,9 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>7.597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -35498,11 +36078,9 @@
         <v>-17218265.8524275</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -35537,11 +36115,9 @@
         <v>-17573257.3832275</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>7.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -35576,11 +36152,9 @@
         <v>-17575177.7571275</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>7.595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -35615,11 +36189,9 @@
         <v>-17446409.6763275</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>7.563</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
@@ -35654,11 +36226,9 @@
         <v>-17260178.1631275</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>7.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -35693,11 +36263,9 @@
         <v>-17466761.0993275</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>7.594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -35732,11 +36300,9 @@
         <v>-17467761.0993275</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>7.585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -35771,11 +36337,9 @@
         <v>-17260757.7944275</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>7.562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -35810,11 +36374,9 @@
         <v>-18529585.7447275</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>7.589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -35849,11 +36411,9 @@
         <v>-18215453.3067275</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>7.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
